--- a/Part 1/tagged data/original_samples/Lyrasis Dura Cloud.xlsx
+++ b/Part 1/tagged data/original_samples/Lyrasis Dura Cloud.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_t_vancan_uu_nl/Documents/Documents/jira_datasets/new_codes/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_t_vancan_uu_nl/Documents/Documents/Information and Software Technology/Appendix IST/Part 1/tagged data/original_samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_7D25558D5BF0DDBE9C6816D04B5ED87656CCDFC2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651751E3-0405-4050-830C-740D18CEBD4B}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_7D25558D5BF0DDBE9C6816D04B5ED87656CCDFC2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE71A118-D12E-4DD3-A78B-7BC86F0F65F4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,7 +740,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -781,23 +780,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,13 +1095,13 @@
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="73.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="77.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -1122,7 +1114,7 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1135,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>295216</v>
       </c>
@@ -1145,7 +1137,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
@@ -1155,7 +1147,7 @@
         <v>41449.892488425918</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>295218</v>
       </c>
@@ -1165,7 +1157,7 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
@@ -1175,7 +1167,7 @@
         <v>41435.943483796298</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>295219</v>
       </c>
@@ -1185,7 +1177,7 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
@@ -1218,7 +1210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>295221</v>
       </c>
@@ -1228,7 +1220,7 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
@@ -1238,7 +1230,7 @@
         <v>41424.942430555559</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>295223</v>
       </c>
@@ -1248,7 +1240,7 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
@@ -1258,7 +1250,7 @@
         <v>41422.869814814818</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>295224</v>
       </c>
@@ -1268,7 +1260,7 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
@@ -1278,7 +1270,7 @@
         <v>41422.866620370369</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>295225</v>
       </c>
@@ -1288,7 +1280,7 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
@@ -1298,7 +1290,7 @@
         <v>41419.121180555558</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>295226</v>
       </c>
@@ -1308,7 +1300,7 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1318,7 +1310,7 @@
         <v>41419.117071759261</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>295227</v>
       </c>
@@ -1328,7 +1320,7 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -1341,7 +1333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>295228</v>
       </c>
@@ -1351,7 +1343,7 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E12" t="s">
@@ -1364,7 +1356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>295229</v>
       </c>
@@ -1374,7 +1366,7 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
@@ -1387,7 +1379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>295231</v>
       </c>
@@ -1397,7 +1389,7 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
@@ -1410,7 +1402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>295232</v>
       </c>
@@ -1420,7 +1412,7 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
@@ -1433,7 +1425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>295234</v>
       </c>
@@ -1443,7 +1435,7 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E16" t="s">
@@ -1456,7 +1448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>295236</v>
       </c>
@@ -1466,7 +1458,7 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E17" t="s">
@@ -1476,7 +1468,7 @@
         <v>41418.199108796303</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>295237</v>
       </c>
@@ -1486,7 +1478,7 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E18" t="s">
@@ -1496,7 +1488,7 @@
         <v>41407.916932870372</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>295238</v>
       </c>
@@ -1506,7 +1498,7 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E19" t="s">
@@ -1519,7 +1511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>295240</v>
       </c>
@@ -1529,7 +1521,7 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E20" t="s">
@@ -1539,7 +1531,7 @@
         <v>41390.091782407413</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>295241</v>
       </c>
@@ -1549,7 +1541,7 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E21" t="s">
@@ -1559,7 +1551,7 @@
         <v>41387.88858796296</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>295244</v>
       </c>
@@ -1569,7 +1561,7 @@
       <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E22" t="s">
@@ -1579,7 +1571,7 @@
         <v>41380.157511574071</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>295246</v>
       </c>
@@ -1589,7 +1581,7 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E23" t="s">
@@ -1602,7 +1594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>295247</v>
       </c>
@@ -1612,7 +1604,7 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E24" t="s">
@@ -1625,7 +1617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>295248</v>
       </c>
@@ -1635,7 +1627,7 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E25" t="s">
@@ -1645,7 +1637,7 @@
         <v>41334.214386574073</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>295261</v>
       </c>
@@ -1655,7 +1647,7 @@
       <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E26" t="s">
@@ -1665,7 +1657,7 @@
         <v>41331.068483796298</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>295262</v>
       </c>
@@ -1675,7 +1667,7 @@
       <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E27" t="s">
@@ -1685,7 +1677,7 @@
         <v>41331.058796296304</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>295263</v>
       </c>
@@ -1695,7 +1687,7 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E28" t="s">
@@ -1705,7 +1697,7 @@
         <v>41331.055081018523</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>295265</v>
       </c>
@@ -1715,7 +1707,7 @@
       <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E29" t="s">
@@ -1728,7 +1720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>295267</v>
       </c>
@@ -1738,7 +1730,7 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E30" t="s">
@@ -1748,7 +1740,7 @@
         <v>41310.950752314813</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>295268</v>
       </c>
@@ -1758,7 +1750,7 @@
       <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E31" t="s">
@@ -1768,7 +1760,7 @@
         <v>41305.015532407408</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>295269</v>
       </c>
@@ -1778,7 +1770,7 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E32" t="s">
@@ -1788,7 +1780,7 @@
         <v>41304.973020833328</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>295270</v>
       </c>
@@ -1798,7 +1790,7 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E33" t="s">
@@ -1808,7 +1800,7 @@
         <v>41304.916446759264</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>295271</v>
       </c>
@@ -1818,7 +1810,7 @@
       <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E34" t="s">
@@ -1831,7 +1823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>295272</v>
       </c>
@@ -1841,7 +1833,7 @@
       <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E35" t="s">
@@ -1854,7 +1846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>295274</v>
       </c>
@@ -1864,7 +1856,7 @@
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E36" t="s">
@@ -1877,7 +1869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>295277</v>
       </c>
@@ -1887,7 +1879,7 @@
       <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E37" t="s">
@@ -1897,7 +1889,7 @@
         <v>41293.343055555553</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>295283</v>
       </c>
@@ -1907,7 +1899,7 @@
       <c r="C38" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E38" t="s">
@@ -1920,7 +1912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>295285</v>
       </c>
@@ -1930,7 +1922,7 @@
       <c r="C39" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E39" t="s">
@@ -1940,7 +1932,7 @@
         <v>41200.816261574073</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>295287</v>
       </c>
@@ -1950,7 +1942,7 @@
       <c r="C40" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E40" t="s">
@@ -1960,7 +1952,7 @@
         <v>41199.805949074071</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>295288</v>
       </c>
@@ -1970,7 +1962,7 @@
       <c r="C41" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E41" t="s">
@@ -1983,7 +1975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>295289</v>
       </c>
@@ -1993,7 +1985,7 @@
       <c r="C42" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E42" t="s">
@@ -2003,7 +1995,7 @@
         <v>41184.947453703702</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>295292</v>
       </c>
@@ -2013,7 +2005,7 @@
       <c r="C43" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E43" t="s">
@@ -2026,30 +2018,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>295293</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>248129</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="4">
         <v>41149.208368055559</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>295297</v>
       </c>
@@ -2059,7 +2051,7 @@
       <c r="C45" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E45" t="s">
@@ -2069,7 +2061,7 @@
         <v>41139.052615740737</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>295299</v>
       </c>
@@ -2079,7 +2071,7 @@
       <c r="C46" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E46" t="s">
@@ -2089,7 +2081,7 @@
         <v>41132.08902777778</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>295300</v>
       </c>
@@ -2099,7 +2091,7 @@
       <c r="C47" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E47" t="s">
@@ -2109,7 +2101,7 @@
         <v>41132.055300925917</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>295302</v>
       </c>
@@ -2119,7 +2111,7 @@
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E48" t="s">
@@ -2129,7 +2121,7 @@
         <v>41130.273969907408</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>295306</v>
       </c>
@@ -2139,7 +2131,7 @@
       <c r="C49" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E49" t="s">
@@ -2152,7 +2144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>295307</v>
       </c>
@@ -2162,7 +2154,7 @@
       <c r="C50" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E50" t="s">
@@ -2175,7 +2167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>295309</v>
       </c>
@@ -2185,7 +2177,7 @@
       <c r="C51" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E51" t="s">
@@ -2198,7 +2190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>295312</v>
       </c>
@@ -2208,7 +2200,7 @@
       <c r="C52" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E52" t="s">
@@ -2221,7 +2213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>295314</v>
       </c>
@@ -2231,7 +2223,7 @@
       <c r="C53" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E53" t="s">
@@ -2241,7 +2233,7 @@
         <v>41101.868634259263</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>295316</v>
       </c>
@@ -2251,7 +2243,7 @@
       <c r="C54" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E54" t="s">
@@ -2261,7 +2253,7 @@
         <v>41089.999432870369</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>295317</v>
       </c>
@@ -2271,7 +2263,7 @@
       <c r="C55" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E55" t="s">
@@ -2281,7 +2273,7 @@
         <v>41089.982881944437</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>295319</v>
       </c>
@@ -2291,7 +2283,7 @@
       <c r="C56" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E56" t="s">
@@ -2301,7 +2293,7 @@
         <v>41088.116481481477</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>295325</v>
       </c>
@@ -2311,7 +2303,7 @@
       <c r="C57" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E57" t="s">
@@ -2321,7 +2313,7 @@
         <v>41072.843263888892</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>295326</v>
       </c>
@@ -2331,7 +2323,7 @@
       <c r="C58" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E58" t="s">
@@ -2341,7 +2333,7 @@
         <v>41072.063518518517</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>295327</v>
       </c>
@@ -2351,7 +2343,7 @@
       <c r="C59" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E59" t="s">
@@ -2361,7 +2353,7 @@
         <v>41071.873541666668</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>295329</v>
       </c>
@@ -2371,7 +2363,7 @@
       <c r="C60" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E60" t="s">
@@ -2381,7 +2373,7 @@
         <v>41060.895949074067</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>295330</v>
       </c>
@@ -2391,7 +2383,7 @@
       <c r="C61" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E61" t="s">
@@ -2401,7 +2393,7 @@
         <v>41053.785555555558</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>295332</v>
       </c>
@@ -2411,7 +2403,7 @@
       <c r="C62" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E62" t="s">
@@ -2421,7 +2413,7 @@
         <v>41046.915150462963</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>295335</v>
       </c>
@@ -2431,7 +2423,7 @@
       <c r="C63" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E63" t="s">
@@ -2444,7 +2436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>295336</v>
       </c>
@@ -2454,7 +2446,7 @@
       <c r="C64" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E64" t="s">
@@ -2464,7 +2456,7 @@
         <v>41045.873981481483</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>295337</v>
       </c>
@@ -2474,7 +2466,7 @@
       <c r="C65" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E65" t="s">
@@ -2494,7 +2486,7 @@
       <c r="C66" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E66" t="s">
@@ -2504,7 +2496,7 @@
         <v>41038.916631944441</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>295344</v>
       </c>
@@ -2514,7 +2506,7 @@
       <c r="C67" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E67" t="s">
@@ -2534,7 +2526,7 @@
       <c r="C68" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E68" t="s">
@@ -2544,7 +2536,7 @@
         <v>41037.8590625</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>295348</v>
       </c>
@@ -2554,7 +2546,7 @@
       <c r="C69" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E69" t="s">
@@ -2564,7 +2556,7 @@
         <v>41032.863564814812</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>295349</v>
       </c>
@@ -2574,7 +2566,7 @@
       <c r="C70" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E70" t="s">
@@ -2584,7 +2576,7 @@
         <v>41031.223541666674</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>295350</v>
       </c>
@@ -2594,7 +2586,7 @@
       <c r="C71" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E71" t="s">
@@ -2604,7 +2596,7 @@
         <v>41030.215648148151</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>295351</v>
       </c>
@@ -2614,7 +2606,7 @@
       <c r="C72" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E72" t="s">
@@ -2624,7 +2616,7 @@
         <v>41030.190497685187</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>295352</v>
       </c>
@@ -2634,7 +2626,7 @@
       <c r="C73" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E73" t="s">
@@ -2654,7 +2646,7 @@
       <c r="C74" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E74" t="s">
@@ -2664,7 +2656,7 @@
         <v>41019.965405092589</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>295355</v>
       </c>
@@ -2674,7 +2666,7 @@
       <c r="C75" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="5" t="s">
         <v>150</v>
       </c>
       <c r="E75" t="s">
@@ -2687,7 +2679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>295357</v>
       </c>
@@ -2697,7 +2689,7 @@
       <c r="C76" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E76" t="s">
@@ -2707,7 +2699,7 @@
         <v>41019.936342592591</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>295358</v>
       </c>
@@ -2717,7 +2709,7 @@
       <c r="C77" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="5" t="s">
         <v>154</v>
       </c>
       <c r="E77" t="s">
@@ -2727,7 +2719,7 @@
         <v>41019.923414351862</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>295359</v>
       </c>
@@ -2737,7 +2729,7 @@
       <c r="C78" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E78" t="s">
@@ -2750,7 +2742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>295360</v>
       </c>
@@ -2760,7 +2752,7 @@
       <c r="C79" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E79" t="s">
@@ -2773,7 +2765,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>295362</v>
       </c>
@@ -2783,7 +2775,7 @@
       <c r="C80" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E80" t="s">
@@ -2796,7 +2788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>295363</v>
       </c>
@@ -2806,7 +2798,7 @@
       <c r="C81" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E81" t="s">
@@ -2816,7 +2808,7 @@
         <v>41019.256944444453</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>295364</v>
       </c>
@@ -2826,7 +2818,7 @@
       <c r="C82" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E82" t="s">
@@ -2836,7 +2828,7 @@
         <v>41019.249074074083</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>295365</v>
       </c>
@@ -2846,7 +2838,7 @@
       <c r="C83" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="5" t="s">
         <v>166</v>
       </c>
       <c r="E83" t="s">
@@ -2866,7 +2858,7 @@
       <c r="C84" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E84" t="s">
@@ -2876,7 +2868,7 @@
         <v>41018.307557870372</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>295368</v>
       </c>
@@ -2886,7 +2878,7 @@
       <c r="C85" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E85" t="s">
@@ -2906,7 +2898,7 @@
       <c r="C86" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="5" t="s">
         <v>172</v>
       </c>
       <c r="E86" t="s">
@@ -2916,7 +2908,7 @@
         <v>41016.947442129633</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>295377</v>
       </c>
@@ -2926,7 +2918,7 @@
       <c r="C87" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E87" t="s">
@@ -2936,7 +2928,7 @@
         <v>41016.850289351853</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>295379</v>
       </c>
@@ -2946,7 +2938,7 @@
       <c r="C88" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E88" t="s">
@@ -2956,7 +2948,7 @@
         <v>41010.919687499998</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>295380</v>
       </c>
@@ -2966,7 +2958,7 @@
       <c r="C89" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E89" t="s">
@@ -2976,7 +2968,7 @@
         <v>41010.872199074067</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>295381</v>
       </c>
@@ -2986,7 +2978,7 @@
       <c r="C90" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E90" t="s">
@@ -2996,7 +2988,7 @@
         <v>41009.936273148152</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>295382</v>
       </c>
@@ -3006,7 +2998,7 @@
       <c r="C91" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="5" t="s">
         <v>182</v>
       </c>
       <c r="E91" t="s">
@@ -3019,7 +3011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>295383</v>
       </c>
@@ -3029,7 +3021,7 @@
       <c r="C92" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E92" t="s">
@@ -3042,7 +3034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>295386</v>
       </c>
@@ -3052,7 +3044,7 @@
       <c r="C93" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E93" t="s">
@@ -3072,7 +3064,7 @@
       <c r="C94" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E94" t="s">
@@ -3082,7 +3074,7 @@
         <v>41004.97859953704</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>295388</v>
       </c>
@@ -3092,7 +3084,7 @@
       <c r="C95" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E95" t="s">
@@ -3119,7 +3111,7 @@
         <v>40994.870509259257</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>295391</v>
       </c>
@@ -3129,7 +3121,7 @@
       <c r="C97" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="5" t="s">
         <v>193</v>
       </c>
       <c r="E97" t="s">
@@ -3139,7 +3131,7 @@
         <v>40988.784675925926</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>295392</v>
       </c>
@@ -3149,7 +3141,7 @@
       <c r="C98" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="5" t="s">
         <v>195</v>
       </c>
       <c r="E98" t="s">
@@ -3159,7 +3151,7 @@
         <v>40981.098113425927</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>295393</v>
       </c>
@@ -3169,7 +3161,7 @@
       <c r="C99" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E99" t="s">
@@ -3179,7 +3171,7 @@
         <v>40969.337881944448</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>295394</v>
       </c>
@@ -3189,7 +3181,7 @@
       <c r="C100" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="5" t="s">
         <v>199</v>
       </c>
       <c r="E100" t="s">
@@ -3202,7 +3194,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>295395</v>
       </c>
@@ -3212,7 +3204,7 @@
       <c r="C101" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E101" t="s">
@@ -3225,7 +3217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>295406</v>
       </c>
@@ -3235,7 +3227,7 @@
       <c r="C102" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E102" t="s">
@@ -3248,7 +3240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>295409</v>
       </c>
@@ -3258,7 +3250,7 @@
       <c r="C103" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="5" t="s">
         <v>205</v>
       </c>
       <c r="E103" t="s">
@@ -3271,7 +3263,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>295467</v>
       </c>
@@ -3281,7 +3273,7 @@
       <c r="C104" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="5" t="s">
         <v>207</v>
       </c>
       <c r="E104" t="s">
@@ -3294,7 +3286,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>295478</v>
       </c>
@@ -3304,7 +3296,7 @@
       <c r="C105" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="5" t="s">
         <v>209</v>
       </c>
       <c r="E105" t="s">
@@ -3317,7 +3309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>295483</v>
       </c>
@@ -3327,7 +3319,7 @@
       <c r="C106" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E106" t="s">
@@ -3340,7 +3332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>295487</v>
       </c>
@@ -3350,7 +3342,7 @@
       <c r="C107" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="5" t="s">
         <v>213</v>
       </c>
       <c r="E107" t="s">
@@ -3363,7 +3355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>295587</v>
       </c>
@@ -3373,7 +3365,7 @@
       <c r="C108" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E108" t="s">
@@ -3386,7 +3378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>295630</v>
       </c>
@@ -3396,7 +3388,7 @@
       <c r="C109" t="s">
         <v>2</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="5" t="s">
         <v>217</v>
       </c>
       <c r="E109" t="s">
@@ -3409,7 +3401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>295670</v>
       </c>
@@ -3419,7 +3411,7 @@
       <c r="C110" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="5" t="s">
         <v>219</v>
       </c>
       <c r="E110" t="s">
@@ -3432,7 +3424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>295672</v>
       </c>
@@ -3442,7 +3434,7 @@
       <c r="C111" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="5" t="s">
         <v>221</v>
       </c>
       <c r="E111" t="s">
@@ -3455,7 +3447,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>295827</v>
       </c>
@@ -3465,7 +3457,7 @@
       <c r="C112" t="s">
         <v>2</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="5" t="s">
         <v>223</v>
       </c>
       <c r="E112" t="s">
@@ -3498,7 +3490,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>295935</v>
       </c>
@@ -3508,7 +3500,7 @@
       <c r="C114" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="5" t="s">
         <v>226</v>
       </c>
       <c r="E114" t="s">
